--- a/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 22,9</t>
+          <t>-8,89; 24,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 15,01</t>
+          <t>-35,41; 12,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 13,63</t>
+          <t>-14,3; 14,06</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 66,72</t>
+          <t>-17,07; 71,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,85; 89,29</t>
+          <t>-87,16; 100,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 41,53</t>
+          <t>-30,69; 42,42</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 5,24</t>
+          <t>-9,94; 5,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 4,45</t>
+          <t>-14,78; 3,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 3,1</t>
+          <t>-9,45; 2,83</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 15,07</t>
+          <t>-23,6; 14,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 20,85</t>
+          <t>-44,99; 17,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 9,4</t>
+          <t>-24,05; 9,17</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 6,9</t>
+          <t>-5,52; 5,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 13,84</t>
+          <t>-0,29; 12,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,81</t>
+          <t>-2,33; 6,67</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 22,42</t>
+          <t>-14,58; 17,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 71,87</t>
+          <t>-1,45; 69,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 24,42</t>
+          <t>-6,9; 24,32</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 7,39</t>
+          <t>-6,25; 8,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 9,67</t>
+          <t>-5,68; 10,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,4</t>
+          <t>-4,6; 6,36</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 23,57</t>
+          <t>-15,48; 26,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 41,01</t>
+          <t>-18,47; 46,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 20,8</t>
+          <t>-12,87; 21,37</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 7,53</t>
+          <t>-3,4; 7,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 7,14</t>
+          <t>-6,97; 6,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,5</t>
+          <t>-3,05; 5,89</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 23,5</t>
+          <t>-9,29; 24,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 26,42</t>
+          <t>-20,48; 25,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 17,83</t>
+          <t>-8,98; 19,58</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,63</t>
+          <t>-2,36; 3,57</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,74</t>
+          <t>-2,64; 4,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,24</t>
+          <t>-1,86; 3,15</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,68</t>
+          <t>-6,24; 10,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 19,11</t>
+          <t>-8,9; 19,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,26</t>
+          <t>-5,47; 10,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 24,88</t>
+          <t>-9,36; 22,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 12,35</t>
+          <t>-35,55; 11,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 14,06</t>
+          <t>-12,3; 13,22</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 71,58</t>
+          <t>-17,76; 62,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,16; 100,67</t>
+          <t>-87,48; 90,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 42,42</t>
+          <t>-26,75; 38,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 5,25</t>
+          <t>-10,35; 6,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 3,92</t>
+          <t>-14,12; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 2,83</t>
+          <t>-9,27; 2,76</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 14,32</t>
+          <t>-23,67; 17,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 17,51</t>
+          <t>-44,55; 23,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 9,17</t>
+          <t>-23,43; 8,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 5,7</t>
+          <t>-5,78; 5,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 12,92</t>
+          <t>-0,15; 13,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,67</t>
+          <t>-2,13; 7,1</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 17,9</t>
+          <t>-15,36; 18,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 69,29</t>
+          <t>-1,02; 72,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 24,32</t>
+          <t>-6,74; 25,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 8,28</t>
+          <t>-5,92; 7,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 10,63</t>
+          <t>-7,02; 10,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 6,36</t>
+          <t>-4,35; 6,05</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 26,55</t>
+          <t>-15,33; 25,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 46,14</t>
+          <t>-22,86; 48,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 21,37</t>
+          <t>-11,91; 20,49</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 7,95</t>
+          <t>-3,36; 8,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 6,82</t>
+          <t>-6,8; 7,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 5,89</t>
+          <t>-3,0; 5,67</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 24,81</t>
+          <t>-9,15; 25,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 25,25</t>
+          <t>-20,0; 26,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 19,58</t>
+          <t>-8,77; 18,81</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 3,57</t>
+          <t>-2,57; 3,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,84</t>
+          <t>-2,85; 4,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,15</t>
+          <t>-1,52; 3,35</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 10,61</t>
+          <t>-6,87; 10,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 19,4</t>
+          <t>-9,63; 19,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 10,01</t>
+          <t>-4,52; 10,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 22,01</t>
+          <t>-9,89; 22,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 11,45</t>
+          <t>-33,48; 15,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 13,22</t>
+          <t>-13,33; 13,63</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 62,87</t>
+          <t>-19,32; 66,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,48; 90,69</t>
+          <t>-84,85; 89,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 38,98</t>
+          <t>-28,67; 41,53</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 6,05</t>
+          <t>-10,23; 5,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 5,22</t>
+          <t>-14,9; 4,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 2,76</t>
+          <t>-9,33; 3,1</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 17,97</t>
+          <t>-23,52; 15,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 23,55</t>
+          <t>-45,93; 20,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 8,68</t>
+          <t>-23,79; 9,4</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 5,71</t>
+          <t>-5,18; 6,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 13,54</t>
+          <t>-0,21; 13,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 7,1</t>
+          <t>-2,77; 6,81</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 18,04</t>
+          <t>-13,57; 22,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 72,37</t>
+          <t>-1,89; 71,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 25,44</t>
+          <t>-8,28; 24,42</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 7,79</t>
+          <t>-6,08; 7,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 10,91</t>
+          <t>-6,79; 9,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 6,05</t>
+          <t>-4,07; 6,4</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 25,09</t>
+          <t>-15,1; 23,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 48,26</t>
+          <t>-22,28; 41,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 20,49</t>
+          <t>-11,03; 20,8</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 8,28</t>
+          <t>-3,4; 7,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 7,23</t>
+          <t>-7,16; 7,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,67</t>
+          <t>-3,42; 5,5</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 25,59</t>
+          <t>-9,34; 23,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 26,92</t>
+          <t>-21,12; 26,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 18,81</t>
+          <t>-10,01; 17,83</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,71</t>
+          <t>-2,67; 3,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,84</t>
+          <t>-2,73; 4,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,35</t>
+          <t>-1,76; 3,24</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 10,87</t>
+          <t>-7,04; 10,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 19,21</t>
+          <t>-9,46; 19,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 10,85</t>
+          <t>-5,09; 10,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +520,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +540,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,11 +612,17 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,64</t>
+          <t>24,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-2,06</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-5,92</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-10,06</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19,82</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-5,58</t>
         </is>
       </c>
     </row>
@@ -579,17 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 22,9</t>
+          <t>-7,77; 5,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 15,01</t>
+          <t>8,37; 39,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 13,63</t>
+          <t>-9,5; 5,92</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 2,9</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-21,52; 27,79</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-19,0; -1,68</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; 2,57</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 32,63</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,06; 0,25</t>
         </is>
       </c>
     </row>
@@ -602,17 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-41,33%</t>
+          <t>61,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>-5,14%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-21,28%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-1,82%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-36,18%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-7,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>54,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-15,43%</t>
         </is>
       </c>
     </row>
@@ -625,24 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 66,72</t>
+          <t>-17,7; 14,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,85; 89,29</t>
+          <t>19,94; 104,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 41,53</t>
+          <t>-22,03; 15,89</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-45,41; 13,97</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-75,0; 110,0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-57,29; -6,22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,96; 7,76</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 97,62</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-28,62; 0,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>22,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-15,4</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20,69</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21,76</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-10,38</t>
         </is>
       </c>
     </row>
@@ -675,17 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 5,24</t>
+          <t>-5,18; 6,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 4,45</t>
+          <t>7,77; 36,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 3,1</t>
+          <t>-32,22; -1,76</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 13,84</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 39,22</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 6,69</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 6,81</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9,61; 33,42</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-22,52; -0,98</t>
         </is>
       </c>
     </row>
@@ -698,17 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>64,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>-44,7%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29,05%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>93,42%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-2,43%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72,1%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-34,4%</t>
         </is>
       </c>
     </row>
@@ -721,24 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 15,07</t>
+          <t>-13,57; 22,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 20,85</t>
+          <t>21,78; 109,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 9,4</t>
+          <t>-83,33; -5,15</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 71,87</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 197,51</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-29,54; 34,86</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-8,28; 24,42</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30,08; 114,73</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-70,0; -3,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-4,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31,37</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,9</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -771,17 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 6,9</t>
+          <t>-6,08; 7,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 13,84</t>
+          <t>-6,67; 29,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,81</t>
+          <t>-12,0; 4,55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 9,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 57,73</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 8,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 6,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 34,06</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 3,56</t>
         </is>
       </c>
     </row>
@@ -794,17 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>-11,34%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>115,62%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>54,68%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-7,79%</t>
         </is>
       </c>
     </row>
@@ -817,24 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 22,42</t>
+          <t>-15,1; 23,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 71,87</t>
+          <t>-16,77; 84,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 24,42</t>
+          <t>-30,89; 13,66</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-22,28; 41,01</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 236,26</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-24,32; 37,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 20,8</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11,7; 107,27</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-23,96; 12,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22,27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-3,35</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9,39</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -867,17 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 7,39</t>
+          <t>-3,4; 7,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 9,67</t>
+          <t>-6,27; 17,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,4</t>
+          <t>-3,43; 8,65</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 7,14</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 44,35</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 3,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 5,5</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 21,16</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 4,38</t>
         </is>
       </c>
     </row>
@@ -890,17 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>73,24%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-11,03%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-0,56%</t>
         </is>
       </c>
     </row>
@@ -913,24 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 23,57</t>
+          <t>-9,34; 23,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 41,01</t>
+          <t>-18,61; 55,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 20,8</t>
+          <t>-9,74; 27,87</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-21,12; 26,42</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 159,86</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-26,71; 14,5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 17,83</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 64,96</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 14,1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>14,46</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-6,63</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18,6</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16,44</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
         </is>
       </c>
     </row>
@@ -963,17 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 7,53</t>
+          <t>-2,67; 3,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 7,14</t>
+          <t>6,45; 21,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,5</t>
+          <t>-18,9; -0,43</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 4,74</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 29,91</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 0,71</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 3,24</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 22,79</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; -1,5</t>
         </is>
       </c>
     </row>
@@ -986,17 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>-18,49%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>68,82%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-10,69%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>50,37%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-16,18%</t>
         </is>
       </c>
     </row>
@@ -1009,131 +1655,67 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 23,5</t>
+          <t>-7,04; 10,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 26,42</t>
+          <t>18,57; 61,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 17,83</t>
+          <t>-51,88; -1,23</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-9,46; 19,11</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 117,23</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-22,14; 3,25</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 10,26</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>31,52; 71,6</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; -4,9</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 3,63</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,73; 4,74</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 3,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 10,68</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 19,11</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 10,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,82</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 5,38</t>
+          <t>-7,73; 6,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,37; 39,12</t>
+          <t>-5,19; 8,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 5,92</t>
+          <t>-9,87; 6,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 2,9</t>
+          <t>-15,3; 2,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 27,79</t>
+          <t>-10,32; 7,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -1,68</t>
+          <t>-18,34; -2,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 2,57</t>
+          <t>-8,34; 2,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 32,63</t>
+          <t>-5,91; 5,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 0,25</t>
+          <t>-11,33; 0,24</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 14,69</t>
+          <t>-17,77; 17,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,94; 104,5</t>
+          <t>-12,1; 24,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 15,89</t>
+          <t>-22,68; 16,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 13,97</t>
+          <t>-46,01; 13,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,0; 110,0</t>
+          <t>-31,98; 33,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,29; -6,22</t>
+          <t>-56,88; -8,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 7,76</t>
+          <t>-21,01; 7,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 97,62</t>
+          <t>-15,11; 15,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 0,78</t>
+          <t>-30,13; 0,65</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,16</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,69</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,76</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 6,9</t>
+          <t>-6,22; 5,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 36,03</t>
+          <t>-2,41; 10,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,22; -1,76</t>
+          <t>-30,19; -1,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 13,84</t>
+          <t>-1,19; 12,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 39,22</t>
+          <t>-0,22; 13,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 6,69</t>
+          <t>-7,01; 6,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,81</t>
+          <t>-2,37; 6,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 33,42</t>
+          <t>-0,34; 9,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -0,98</t>
+          <t>-22,21; -1,51</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>64,32%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 22,42</t>
+          <t>-16,55; 16,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,78; 109,41</t>
+          <t>-6,72; 31,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,33; -5,15</t>
+          <t>-81,14; -5,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 71,87</t>
+          <t>-4,41; 68,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 197,51</t>
+          <t>-0,45; 69,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 34,86</t>
+          <t>-27,44; 34,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 24,42</t>
+          <t>-7,19; 23,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,08; 114,73</t>
+          <t>-1,13; 32,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,0; -3,54</t>
+          <t>-68,6; -5,22</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,37</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,9</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 7,39</t>
+          <t>-6,67; 7,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 29,27</t>
+          <t>-10,97; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 4,55</t>
+          <t>-12,18; 3,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 9,67</t>
+          <t>-5,59; 9,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 57,73</t>
+          <t>-11,75; 3,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 8,67</t>
+          <t>-8,28; 8,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,4</t>
+          <t>-4,11; 6,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 34,06</t>
+          <t>-10,41; 0,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 3,56</t>
+          <t>-8,12; 3,71</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>-12,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>115,62%</t>
+          <t>-16,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>-14,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 23,57</t>
+          <t>-16,59; 24,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 84,28</t>
+          <t>-27,81; 8,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 13,66</t>
+          <t>-30,84; 12,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 41,01</t>
+          <t>-18,26; 45,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,98; 236,26</t>
+          <t>-37,4; 13,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 37,43</t>
+          <t>-26,3; 37,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 20,8</t>
+          <t>-11,36; 22,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,7; 107,27</t>
+          <t>-28,48; 1,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 12,56</t>
+          <t>-22,89; 12,5</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,27</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 7,53</t>
+          <t>-4,22; 7,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 17,88</t>
+          <t>-6,4; 5,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 8,65</t>
+          <t>-3,96; 9,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 7,14</t>
+          <t>-6,26; 6,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 44,35</t>
+          <t>-11,84; 1,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 3,73</t>
+          <t>-9,4; 3,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,5</t>
+          <t>-2,9; 5,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 21,16</t>
+          <t>-7,12; 1,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,38</t>
+          <t>-4,63; 4,32</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>73,24%</t>
+          <t>-15,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>-8,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 23,5</t>
+          <t>-11,29; 25,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 55,51</t>
+          <t>-17,51; 19,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 27,87</t>
+          <t>-10,76; 29,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 26,42</t>
+          <t>-19,0; 25,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,17; 159,86</t>
+          <t>-35,03; 7,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 14,5</t>
+          <t>-28,12; 14,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 17,83</t>
+          <t>-8,38; 18,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 64,96</t>
+          <t>-20,29; 5,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 14,1</t>
+          <t>-13,57; 13,85</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,6</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,63</t>
+          <t>-2,73; 3,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,45; 21,43</t>
+          <t>-2,85; 3,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -0,43</t>
+          <t>-17,61; -0,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,74</t>
+          <t>-2,57; 5,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 29,91</t>
+          <t>-4,77; 2,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,71</t>
+          <t>-6,82; 0,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,24</t>
+          <t>-1,92; 2,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,14; 22,79</t>
+          <t>-3,18; 1,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,91; -1,5</t>
+          <t>-13,67; -1,54</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,68</t>
+          <t>-7,28; 10,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>18,57; 61,87</t>
+          <t>-7,63; 10,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,88; -1,23</t>
+          <t>-49,18; -1,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 19,11</t>
+          <t>-8,76; 19,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>22,6; 117,23</t>
+          <t>-16,39; 11,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 3,25</t>
+          <t>-23,09; 2,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,26</t>
+          <t>-5,84; 9,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,52; 71,6</t>
+          <t>-9,53; 5,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,43; -4,9</t>
+          <t>-40,46; -4,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Habitat-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>-0,21</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-5,58</t>
         </is>
       </c>
     </row>
@@ -695,37 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 6,06</t>
+          <t>-15,3; 2,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 2,88</t>
+          <t>-10,32; 7,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 7,15</t>
+          <t>-8,34; 2,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,34; -2,08</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 2,59</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
           <t>-5,91; 5,22</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-11,33; 0,24</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,48%</t>
+          <t>-7,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,18%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-7,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>-0,58%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-15,43%</t>
         </is>
       </c>
     </row>
@@ -801,37 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 16,36</t>
+          <t>-46,01; 13,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,01; 13,46</t>
+          <t>-31,98; 33,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 33,33</t>
+          <t>-21,01; 7,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,88; -8,6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-21,01; 7,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
           <t>-15,11; 15,41</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-30,13; 0,65</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-15,4</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>4,37</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-10,38</t>
         </is>
       </c>
     </row>
@@ -911,37 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -1,43</t>
+          <t>-1,19; 12,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 12,81</t>
+          <t>-0,22; 13,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 13,0</t>
+          <t>-2,37; 6,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 6,41</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 6,57</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
           <t>-0,34; 9,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-22,21; -1,51</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-44,7%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,95%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>14,48%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-34,4%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,14; -5,09</t>
+          <t>-4,41; 68,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 68,89</t>
+          <t>-0,45; 69,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 69,58</t>
+          <t>-7,19; 23,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 34,79</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 23,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
           <t>-1,13; 32,86</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-68,6; -5,22</t>
         </is>
       </c>
     </row>
@@ -1074,37 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
           <t>-4,82</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -1127,37 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 3,81</t>
+          <t>-5,59; 9,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 9,75</t>
+          <t>-11,75; 3,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 3,18</t>
+          <t>-4,11; 6,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 8,85</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 6,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
           <t>-10,41; 0,35</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 3,71</t>
         </is>
       </c>
     </row>
@@ -1180,37 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>-16,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
           <t>-14,74%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-7,79%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 12,26</t>
+          <t>-18,26; 45,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 45,37</t>
+          <t>-37,4; 13,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 13,85</t>
+          <t>-11,36; 22,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 37,75</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-11,36; 22,03</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
           <t>-28,48; 1,35</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-22,89; 12,5</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>-2,61</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 9,05</t>
+          <t>-6,26; 6,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 6,77</t>
+          <t>-11,84; 1,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 1,95</t>
+          <t>-2,9; 5,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 3,83</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-2,9; 5,52</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
           <t>-7,12; 1,84</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 4,32</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>-15,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,1%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,03%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>-8,01%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-0,56%</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 29,02</t>
+          <t>-19,0; 25,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 25,92</t>
+          <t>-35,03; 7,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 7,21</t>
+          <t>-8,38; 18,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 14,89</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-8,38; 18,1</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
           <t>-20,29; 5,99</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>-13,57; 13,85</t>
         </is>
       </c>
     </row>
@@ -1506,37 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
           <t>-0,62</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-5,28</t>
         </is>
       </c>
     </row>
@@ -1559,37 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -0,43</t>
+          <t>-2,57; 5,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,01</t>
+          <t>-4,77; 2,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,74</t>
+          <t>-1,92; 2,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,63</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 2,99</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
           <t>-3,18; 1,79</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; -1,54</t>
         </is>
       </c>
     </row>
@@ -1612,37 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-18,49%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
           <t>-1,91%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-16,18%</t>
         </is>
       </c>
     </row>
@@ -1665,37 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -1,21</t>
+          <t>-8,76; 19,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 19,97</t>
+          <t>-16,39; 11,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 11,15</t>
+          <t>-5,84; 9,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 2,77</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 9,41</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
           <t>-9,53; 5,67</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-40,46; -4,74</t>
         </is>
       </c>
     </row>
@@ -1709,11 +1378,11 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
